--- a/data/case1/14/V1_14.xlsx
+++ b/data/case1/14/V1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999555779007</v>
+        <v>0.99999999381659688</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99834157940607438</v>
+        <v>0.99798790574396001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99619169134963403</v>
+        <v>0.99582741435549349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1.0004842000786038</v>
+        <v>1.0001165426063676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.99167797288390425</v>
+        <v>0.99130890133367267</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.97124714848985283</v>
+        <v>0.97052642641708609</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96821092307908052</v>
+        <v>0.96930913890157899</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.95820732870063285</v>
+        <v>0.96768662457505439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94473373810452299</v>
+        <v>0.96915930392030958</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93772114539656459</v>
+        <v>0.96064686061925608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93667321173280982</v>
+        <v>0.95956916201136477</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93389357701464759</v>
+        <v>0.95777511981127739</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.92260711834587139</v>
+        <v>0.94956451553613563</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.91843986098524721</v>
+        <v>0.94539786879675036</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.91584841039201548</v>
+        <v>0.94280672461487325</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.91334194526845658</v>
+        <v>0.94030046813251544</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.90963402877817401</v>
+        <v>0.93659276215077403</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.90852510670594655</v>
+        <v>0.93548385576702842</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99596778978595846</v>
+        <v>0.99474986018500489</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97712480860824336</v>
+        <v>0.96834168784077046</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.97215982885579555</v>
+        <v>0.96694317389374973</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.97089531421229247</v>
+        <v>0.9656786592180957</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9891576681298202</v>
+        <v>0.98879340286076745</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9761375861089725</v>
+        <v>0.97577332987428689</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96968071727826799</v>
+        <v>0.96931646806051475</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.96920609236137523</v>
+        <v>0.9673340353272033</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.96661027363151741</v>
+        <v>0.96313156199979533</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.95578137621017656</v>
+        <v>0.94533370122376215</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.94841849266842981</v>
+        <v>0.93276796250322502</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.94184973453774101</v>
+        <v>0.92727898754929328</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.93419709213167468</v>
+        <v>0.92321628313818127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.93251778922350104</v>
+        <v>0.92285941045725739</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.93199777183393628</v>
+        <v>0.9223394097840687</v>
       </c>
     </row>
   </sheetData>
